--- a/data/administracion_de_tribunales/OP_Ley148_ex_parteEmitidas.xlsx
+++ b/data/administracion_de_tribunales/OP_Ley148_ex_parteEmitidas.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCE49AA-8F70-4083-A3E5-0ECDD00C2F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D911BB-9719-46FD-A2F9-7648CCBA26DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2021" sheetId="3" r:id="rId1"/>
     <sheet name="2021-2022" sheetId="1" r:id="rId2"/>
     <sheet name="2022-2023" sheetId="2" r:id="rId3"/>
+    <sheet name="2024-2025" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,11 +39,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
   <si>
     <t>Región</t>
   </si>
   <si>
+    <t>Cantidad de órdenes ex parte</t>
+  </si>
+  <si>
+    <t>Delito de agresión sexual en órdenes ex parte emitidas</t>
+  </si>
+  <si>
+    <t>Delitos de acoso sexual en órdenes ex parte emitidas</t>
+  </si>
+  <si>
+    <t>Delitos de actos lascivos en órdenes ex parte emitidas</t>
+  </si>
+  <si>
+    <t>Delito de incesto en órdenes ex parte emitidas</t>
+  </si>
+  <si>
     <t>Aguadilla</t>
   </si>
   <si>
@@ -83,28 +99,13 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Cantidad de órdenes ex parte</t>
-  </si>
-  <si>
-    <t>Delito de agresión sexual en órdenes ex parte emitidas</t>
-  </si>
-  <si>
-    <t>Delitos de acoso sexual en órdenes ex parte emitidas</t>
-  </si>
-  <si>
-    <t>Delitos de actos lascivos en órdenes ex parte emitidas</t>
-  </si>
-  <si>
-    <t>Delito de incesto en órdenes ex parte emitidas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +117,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -140,10 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,42 +442,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="5" width="48" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>11</v>
@@ -473,9 +489,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -484,9 +500,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
         <v>10</v>
@@ -504,9 +520,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>24</v>
@@ -524,9 +540,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>20</v>
@@ -541,9 +557,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>22</v>
@@ -561,9 +577,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>9</v>
@@ -581,9 +597,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <v>5</v>
@@ -598,9 +614,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
@@ -618,9 +634,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -628,9 +644,9 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
@@ -645,9 +661,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -665,9 +681,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -682,9 +698,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
         <f>SUM(B2:B14)</f>
@@ -721,38 +737,38 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="5" width="48" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -770,9 +786,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -784,9 +800,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>24</v>
@@ -804,9 +820,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>51</v>
@@ -824,9 +840,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>23</v>
@@ -841,9 +857,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>23</v>
@@ -861,9 +877,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -875,9 +891,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -895,9 +911,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -906,9 +922,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -923,9 +939,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -943,9 +959,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>33</v>
@@ -963,9 +979,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -983,9 +999,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <f>SUM(B2:B14)</f>
@@ -1020,38 +1036,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="5" width="48" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1063,9 +1079,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1080,9 +1096,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1097,9 +1113,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>34</v>
@@ -1117,9 +1133,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>13</v>
@@ -1137,9 +1153,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>22</v>
@@ -1157,9 +1173,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -1174,9 +1190,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1185,9 +1201,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1202,9 +1218,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1219,9 +1235,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>17</v>
@@ -1236,9 +1252,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>23</v>
@@ -1253,9 +1269,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -1270,9 +1286,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <f>SUM(B2:B14)</f>
@@ -1299,4 +1315,269 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2F5A0C-1199-45EA-85B9-B212D094D2B7}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3">
+        <v>24</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/administracion_de_tribunales/OP_Ley148_ex_parteEmitidas.xlsx
+++ b/data/administracion_de_tribunales/OP_Ley148_ex_parteEmitidas.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28813"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D911BB-9719-46FD-A2F9-7648CCBA26DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E654C7-EE36-450F-AD65-6473A66E2AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2021" sheetId="3" r:id="rId1"/>
     <sheet name="2021-2022" sheetId="1" r:id="rId2"/>
     <sheet name="2022-2023" sheetId="2" r:id="rId3"/>
-    <sheet name="2024-2025" sheetId="4" r:id="rId4"/>
+    <sheet name="2023-2024" sheetId="5" r:id="rId4"/>
+    <sheet name="2024-2025" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="20">
   <si>
     <t>Región</t>
   </si>
@@ -1318,6 +1319,311 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348633A4-A3DA-4647-A08B-2441CE4CA117}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="5" width="48" customWidth="1"/>
+    <col min="6" max="6" width="42.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="3">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <v>222</v>
+      </c>
+      <c r="C15" s="3">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3">
+        <v>99</v>
+      </c>
+      <c r="F15" s="3">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2F5A0C-1199-45EA-85B9-B212D094D2B7}">
   <dimension ref="A1:F15"/>
   <sheetViews>
